--- a/dokumentumok/tesztek.xlsx
+++ b/dokumentumok/tesztek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Áron\Záróvizsga_AirRace\AirRace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Áron\Záróvizsga_AirRace\AirRace\dokumentumok\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="151">
   <si>
     <t>Főmenü</t>
   </si>
@@ -471,6 +471,12 @@
   </si>
   <si>
     <t>Az állás növekszik egyel</t>
+  </si>
+  <si>
+    <t>Belépés, 2.teszt</t>
+  </si>
+  <si>
+    <t>Előző eredmény: 1:14</t>
   </si>
 </sst>
 </file>
@@ -552,6 +558,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72555</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21417643" y="9007929"/>
+          <a:ext cx="3134162" cy="905001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>577451</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>57291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kép 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21812250" y="26533929"/>
+          <a:ext cx="3639058" cy="1009791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +916,7 @@
     <col min="2" max="2" width="68.42578125" customWidth="1"/>
     <col min="3" max="4" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,7 +1147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1076,7 +1164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -1093,23 +1181,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1126,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1142,8 +1230,11 @@
       <c r="E24" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -1194,14 +1285,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
@@ -1210,7 +1301,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2183,7 +2274,7 @@
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
@@ -2192,7 +2283,7 @@
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>9</v>
       </c>
@@ -2226,7 +2317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>12</v>
       </c>
@@ -2242,13 +2333,16 @@
       <c r="E100" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>5</v>
       </c>
@@ -2268,5 +2362,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>